--- a/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DC_gene_ranking.xlsx
+++ b/deep_seq_batch/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_DC_gene_ranking.xlsx
@@ -496,37 +496,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Srgn</t>
+          <t>C920021L13Rik</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Gm36975</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gm26716</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -536,17 +536,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Nedd9</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -586,27 +586,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>App</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Itk</t>
         </is>
       </c>
     </row>
@@ -616,57 +616,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ahr</t>
+          <t>Themis2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Ncapg2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Gm15511</t>
         </is>
       </c>
     </row>
@@ -676,57 +676,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Rnf125</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ikzf2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Diaph3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Ptgs2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sema7a</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Rora</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Ets1</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Etv6</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>H2-Aa</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Atxn1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Nr3c1</t>
         </is>
       </c>
     </row>
@@ -736,57 +736,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Cd300a</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Pola1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Rel</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Kpna4</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>St8sia4</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Cd300a</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>Wdfy4</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>Inpp4b</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Srgn</t>
         </is>
       </c>
     </row>
@@ -796,57 +796,57 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Sh3kbp1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Nr3c1</t>
         </is>
       </c>
     </row>
@@ -856,57 +856,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>App</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Cd274</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C920021L13Rik</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Itk</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Zfp36l1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Malt1</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Adam19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Atxn1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Emb</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>H2-Ab1</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Itpr2</t>
         </is>
       </c>
     </row>
@@ -916,57 +916,57 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Itgax</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cers6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Itpr2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>Il2ra</t>
         </is>
       </c>
     </row>
@@ -976,57 +976,57 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Picalm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tns3</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Sh3kbp1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>B3gnt5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Jak2</t>
         </is>
       </c>
     </row>
@@ -1036,57 +1036,57 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Gimap4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tbc1d4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hyou1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Inpp4b</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Ncapd3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Cxcl2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Mmp12</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>Cd74</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4932438H23Rik</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Htr7</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Btla</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Tmem189</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Cd83</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Arap2</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Gmpr</t>
         </is>
       </c>
     </row>
@@ -1096,57 +1096,57 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Ahr</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Tspan13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Picalm</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tmem189</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Gm15396</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Skap2</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>App</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>B3gnt5</t>
         </is>
       </c>
     </row>
@@ -1156,57 +1156,57 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Ahr</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Nfkb2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
     </row>
@@ -1216,57 +1216,57 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Zfp36l1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4932438H23Rik</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rab7b</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Rora</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Smc4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Hspa5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>Camk1d</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cdk14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Camk1d</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Srgn</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Tcp1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Kpna4</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>H2-Ab1</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Gm17092</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Atxn1</t>
         </is>
       </c>
     </row>
@@ -1276,57 +1276,57 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Cers6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>B3gnt5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Themis2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Abcb1a</t>
         </is>
       </c>
     </row>
@@ -1336,57 +1336,57 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Nedd9</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Ptpn22</t>
         </is>
       </c>
     </row>
@@ -1396,57 +1396,57 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Itgax</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Emb</t>
         </is>
       </c>
     </row>
@@ -1456,22 +1456,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1481,32 +1481,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Il7r</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Srgn</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Ikzf3</t>
         </is>
       </c>
     </row>
@@ -1516,57 +1516,57 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Cd36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>C920021L13Rik</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Gmpr</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Rnf125</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Gm36975</t>
         </is>
       </c>
     </row>
@@ -1576,57 +1576,57 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Picalm</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Neat1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1636,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Nfkb2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ahr</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1666,27 +1666,27 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>St8sia4</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Il7r</t>
         </is>
       </c>
     </row>
@@ -1696,57 +1696,57 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Itpr2</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
     </row>
@@ -1756,57 +1756,57 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Camk4</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Swap70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cblb</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Gimap4</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>Inpp4b</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Neurl3</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Tbc1d8</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Gm47566</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Tnfaip3</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
     </row>
@@ -1816,57 +1816,57 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>St8sia4</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Ahr</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Camk1d</t>
         </is>
       </c>
     </row>
@@ -1876,57 +1876,57 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Neurl3</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Srgn</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ahr</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Rnf125</t>
         </is>
       </c>
     </row>
@@ -1936,57 +1936,57 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>B3gnt5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gm26716</t>
+          <t>St8sia4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>Cers6</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>Nfkb2</t>
         </is>
       </c>
     </row>
@@ -1996,57 +1996,57 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Cd300a</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Il7r</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Itga4</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>E230016M11Rik</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Atxn1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>Il1r2</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Nedd9</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Rora</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Csf2rb</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Srgn</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Ncapd3</t>
         </is>
       </c>
     </row>
@@ -2056,57 +2056,57 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tns3</t>
+          <t>Sh3kbp1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Itpr2</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Hells</t>
         </is>
       </c>
     </row>
@@ -2116,57 +2116,57 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>St8sia4</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Picalm</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Cep85l</t>
         </is>
       </c>
     </row>
@@ -2176,42 +2176,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Nfkb2</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2221,12 +2221,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Hspa5</t>
         </is>
       </c>
     </row>
@@ -2236,57 +2236,57 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Neat1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ahr</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Srgn</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Cers6</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Ikzf2</t>
         </is>
       </c>
     </row>
@@ -2296,57 +2296,57 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Nedd9</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Zfp36l1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Neat1</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Zfp36l1</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Sh3kbp1</t>
         </is>
       </c>
     </row>
@@ -2356,57 +2356,57 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Srgn</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>St8sia4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Picalm</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Ncapg2</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Itgax</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Nedd9</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Pik3r1</t>
         </is>
       </c>
     </row>
@@ -2416,57 +2416,57 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Cd36</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Gmpr</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Tox</t>
         </is>
       </c>
     </row>
@@ -2476,57 +2476,57 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Rnf125</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Cblb</t>
         </is>
       </c>
     </row>
@@ -2536,57 +2536,57 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Swap70</t>
         </is>
       </c>
     </row>
@@ -2596,57 +2596,57 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>Gmpr</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Picalm</t>
+          <t>Cd300a</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Ncapg2</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Ets1</t>
         </is>
       </c>
     </row>
@@ -2656,57 +2656,57 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Rnf125</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Neurl3</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Neat1</t>
         </is>
       </c>
     </row>
@@ -2716,57 +2716,57 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Gm26716</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>App</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Samsn1</t>
         </is>
       </c>
     </row>
@@ -2776,57 +2776,57 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>Nedd9</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Itgax</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Srgn</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cd274</t>
         </is>
       </c>
     </row>
@@ -2836,57 +2836,57 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Ahr</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Il7r</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>St8sia4</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Ncapg2</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>Mki67</t>
         </is>
       </c>
     </row>
@@ -2896,52 +2896,52 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Itpr2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Srgn</t>
+          <t>Nedd9</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2956,57 +2956,57 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Zfp36l1</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Picalm</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Cd74</t>
         </is>
       </c>
     </row>
@@ -3016,57 +3016,57 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Il7r</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Picalm</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C920021L13Rik</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>B3gnt5</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
     </row>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Neat1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3096,37 +3096,37 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Themis2</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Smc4</t>
         </is>
       </c>
     </row>
@@ -3136,57 +3136,57 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Gmpr</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Cers6</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Itga4</t>
         </is>
       </c>
     </row>
@@ -3196,57 +3196,57 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Cd36</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Adam23</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Nr4a3</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Fmnl2</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Clec1a</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Zfp36l1</t>
         </is>
       </c>
     </row>
@@ -3256,57 +3256,57 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Neurl3</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>C920021L13Rik</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Ipmk</t>
         </is>
       </c>
     </row>
@@ -3316,57 +3316,57 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Srgn</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Gm36975</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Cd36</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>St8sia4</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Apol7c</t>
         </is>
       </c>
     </row>
@@ -3376,57 +3376,57 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tns3</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Srgn</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Btla</t>
         </is>
       </c>
     </row>
@@ -3436,57 +3436,57 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Cd36</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Camk4</t>
         </is>
       </c>
     </row>
@@ -3496,57 +3496,57 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Picalm</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Neat1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Top2a</t>
         </is>
       </c>
     </row>
@@ -3556,57 +3556,57 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Plbd1</t>
         </is>
       </c>
     </row>
@@ -3616,57 +3616,57 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Itpr2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Tox</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Wdfy4</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Nr4a3</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Tnfrsf9</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Swap70</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>Plbd1</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Elmsan1</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Ly75</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Havcr2</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Tnfaip3</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>C920021L13Rik</t>
-        </is>
-      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Cst3</t>
         </is>
       </c>
     </row>
@@ -3676,57 +3676,57 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Neat1</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Neurl3</t>
+          <t>Themis2</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
     </row>
@@ -3736,57 +3736,57 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Nfkb2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>B3gnt5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Neurl3</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C920021L13Rik</t>
+          <t>Ncapg2</t>
         </is>
       </c>
     </row>
@@ -3796,57 +3796,57 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Neurl3</t>
+          <t>Gmpr</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Gm36975</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Neat1</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Ahr</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Diaph3</t>
         </is>
       </c>
     </row>
@@ -3856,57 +3856,57 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Picalm</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Nedd9</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Ahr</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Ifi205</t>
         </is>
       </c>
     </row>
@@ -3916,57 +3916,57 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ahr</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>St8sia4</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Trim25</t>
         </is>
       </c>
     </row>
@@ -3976,57 +3976,57 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>C920021L13Rik</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Gm26716</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Il7r</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Grap2</t>
         </is>
       </c>
     </row>
@@ -4036,57 +4036,57 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>Clec9a</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Neat1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Hells</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Nfkb2</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Nedd9</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
           <t>Havcr2</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Gm47566</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Tcp1</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Gm26728</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Srgn</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Ikzf3</t>
-        </is>
-      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Rnf125</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Cd36</t>
         </is>
       </c>
     </row>
@@ -4096,57 +4096,57 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Camk1d</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Gm36975</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Srgn</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Lima1</t>
         </is>
       </c>
     </row>
@@ -4156,57 +4156,57 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Ncapg2</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>B3gnt5</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Sh3kbp1</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Fosb</t>
         </is>
       </c>
     </row>
@@ -4216,57 +4216,57 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Tns3</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Nfkb2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Cd36</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Il1b</t>
         </is>
       </c>
     </row>
@@ -4276,57 +4276,57 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Tns3</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Map3k14</t>
         </is>
       </c>
     </row>
@@ -4336,57 +4336,57 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Ncapg2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>C920021L13Rik</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Rgs1</t>
         </is>
       </c>
     </row>
@@ -4396,57 +4396,57 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>Cep85l</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Picalm</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Gm26716</t>
+          <t>Picalm</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Pola1</t>
         </is>
       </c>
     </row>
@@ -4456,57 +4456,57 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Ncapg2</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Cd300a</t>
         </is>
       </c>
     </row>
@@ -4516,57 +4516,57 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Itpr2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Ahr</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Rab7b</t>
+          <t>Gmpr</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Hyou1</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Wdfy4</t>
         </is>
       </c>
     </row>
@@ -4576,57 +4576,57 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>St8sia4</t>
+          <t>Nedd9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cd300a</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Ahr</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Il7r</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
     </row>
@@ -4636,57 +4636,57 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>Emb</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Hyou1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Mmp12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>App</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Myo1e</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Rab7b</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Cd74</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Ipmk</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Top2a</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
           <t>Odc1</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Adam8</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Rab7b</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>Srgn</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Gm17092</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>St8sia4</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Tns3</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Vps37b</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Adam8</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Il1r2</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Gm17092</t>
         </is>
       </c>
     </row>
@@ -4696,57 +4696,57 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>H2-Aa</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Tspan13</t>
         </is>
       </c>
     </row>
@@ -4756,57 +4756,57 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Themis2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Tox</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Ctla4</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>Nabp1</t>
         </is>
       </c>
     </row>
@@ -4816,57 +4816,57 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Sh3kbp1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Rora</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Mmp12</t>
         </is>
       </c>
     </row>
@@ -4876,57 +4876,57 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Themis2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Vps37b</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>C920021L13Rik</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Gmpr</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Ly75</t>
         </is>
       </c>
     </row>
@@ -4936,57 +4936,57 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tns3</t>
+          <t>Ncapg2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Sh3kbp1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Odc1</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Ctla4</t>
         </is>
       </c>
     </row>
@@ -4996,42 +4996,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>Itgax</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Itpr2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
     </row>
@@ -5056,57 +5056,57 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>Rnf125</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Ctla4</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Adam8</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Gimap4</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Gm36043</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Zc3h12c</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Zfp36l1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
           <t>Camk1d</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Srgn</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Fosb</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Ly75</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Gm36043</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Actb</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Nr3c1</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>St8sia4</t>
-        </is>
-      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Rab7b</t>
         </is>
       </c>
     </row>
@@ -5116,57 +5116,57 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Plbd1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>Emb</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Camk1d</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Nabp1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Ets1</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>App</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Havcr2</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Rabgap1l</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
           <t>Srgn</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Gm26716</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Cd83</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Clec1a</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Gpcpd1</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Sf3b1</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Ets1</t>
-        </is>
-      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Ccr7</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Neurl3</t>
+          <t>Il7r</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5191,42 +5191,42 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picalm</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Stt3b</t>
+          <t>Sh3kbp1</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>C920021L13Rik</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Tns3</t>
+          <t>Itgax</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Gimap4</t>
         </is>
       </c>
     </row>
@@ -5236,57 +5236,57 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>C920021L13Rik</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>Cd36</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>C920021L13Rik</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Itk</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Tmem116</t>
         </is>
       </c>
     </row>
@@ -5296,57 +5296,57 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>C920021L13Rik</t>
+          <t>Ncapg2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>Mki67</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Lcp1</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>St8sia4</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Atad2</t>
         </is>
       </c>
     </row>
@@ -5356,57 +5356,57 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>App</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Gm46212</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Zc3h12c</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>Gm15511</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Nedd9</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Havcr2</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>Cd83</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Tns3</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Htr7</t>
-        </is>
-      </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Sema7a</t>
         </is>
       </c>
     </row>
@@ -5416,12 +5416,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5431,42 +5431,42 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vps37b</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Vrk2</t>
+          <t>Itgax</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Adgre5</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>B3gnt5</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Thbs1</t>
         </is>
       </c>
     </row>
@@ -5476,57 +5476,57 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Nfkb2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Nfkb2</t>
+          <t>Sh3kbp1</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Themis2</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Neurl3</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Tns3</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Itpr2</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>St8sia4</t>
+          <t>Clec9a</t>
         </is>
       </c>
     </row>
@@ -5536,57 +5536,57 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Neat1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Gmpr</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Zc3h12c</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Babam2</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Rel</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Emb</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Adam23</t>
         </is>
       </c>
     </row>
@@ -5596,57 +5596,57 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Inpp4b</t>
+          <t>Atad2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Odc1</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Cd300a</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>E230016M11Rik</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Cadm1</t>
         </is>
       </c>
     </row>
@@ -5656,57 +5656,57 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Il7r</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Csf2rb</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Pola1</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>App</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Gm15511</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Neurl3</t>
+          <t>Sgms1</t>
         </is>
       </c>
     </row>
@@ -5716,57 +5716,57 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pde6h</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Stk17b</t>
+          <t>Itk</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Hmgb2</t>
         </is>
       </c>
     </row>
@@ -5776,57 +5776,57 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C920021L13Rik</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Nedd9</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Myo1e</t>
         </is>
       </c>
     </row>
@@ -5836,57 +5836,57 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ets1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Grap2</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Gm17092</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Gmpr</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cd83</t>
         </is>
       </c>
     </row>
@@ -5896,57 +5896,57 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Picalm</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>St8sia4</t>
+          <t>B3gnt5</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Hells</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Sema7a</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Nr3c1</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Rnf125</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Ptgs2</t>
         </is>
       </c>
     </row>
@@ -5956,57 +5956,57 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>Hyou1</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ipmk</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Itgax</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Camk1d</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Cers6</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>Ahr</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Babam2</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Med7</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Pde6h</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Alpk2</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Ahr</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Map3k14</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>C920021L13Rik</t>
         </is>
       </c>
     </row>
@@ -6016,57 +6016,57 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>St8sia4</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>C920021L13Rik</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Nedd9</t>
+          <t>Plet1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Rora</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Srgn</t>
+          <t>Zfp36l1</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>H2-Ab1</t>
+          <t>Themis2</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Itprid2</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Hivep2</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Elmsan1</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Gm26716</t>
+          <t>Adam19</t>
         </is>
       </c>
     </row>
@@ -6076,57 +6076,57 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Srgn</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Pfkfb3</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Hnrnpm</t>
+          <t>Ipmk</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ikzf3</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Top2a</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Hmgb2</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Tnfrsf9</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Gm46212</t>
         </is>
       </c>
     </row>
@@ -6136,57 +6136,57 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Gm36975</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Plbd1</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Myo1e</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Gm26716</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>C920021L13Rik</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Il2ra</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>Itgax</t>
         </is>
       </c>
     </row>
@@ -6196,57 +6196,57 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Gm26716</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Pkib</t>
+          <t>Cxcl2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Inpp4b</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Diaph3</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Etv6</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Zfp36l1</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Nabp1</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Picalm</t>
+          <t>Cxcl2</t>
         </is>
       </c>
     </row>
@@ -6256,57 +6256,57 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tbc1d8</t>
+          <t>Smc4</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>Inpp4b</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Malt1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Ncapg2</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Camk4</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Gm46212</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Wdfy4</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Emb</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
           <t>Ets1</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Gm20496</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Ikzf3</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Atxn1</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Slc8a1</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Gm26716</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>C920021L13Rik</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Neurl3</t>
-        </is>
-      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Il7r</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Adgrg6</t>
         </is>
       </c>
     </row>
@@ -6316,57 +6316,57 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Ahr</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Ikzf3</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>Ptgs2</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Plet1</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Cyld</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
           <t>Itk</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Kpna4</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Sf3b1</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>St8sia4</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Csf2rb</t>
-        </is>
-      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Ccdc167</t>
+          <t>Lima1</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Stt3b</t>
         </is>
       </c>
     </row>
@@ -6376,57 +6376,57 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fmnl2</t>
+          <t>Ncapd3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Gm47071</t>
+          <t>Cd300a</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ets1</t>
+          <t>Ptpn22</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Emb</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Skap2</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Gm44710</t>
+          <t>Plek</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>Rnf125</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Gimap4</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Ifi205</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Adam8</t>
         </is>
       </c>
     </row>
@@ -6436,57 +6436,57 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ptprc</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Camk4</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Nr3c1</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Gm26728</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Abcb1a</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Ppib</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Gm26716</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Plek</t>
+          <t>Malt1</t>
         </is>
       </c>
     </row>
